--- a/Models/升降机模型/小型尺寸建模装配图/Lifter_BOM.xlsx
+++ b/Models/升降机模型/小型尺寸建模装配图/Lifter_BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA07C54-3D2C-4CA3-A024-3B524D08787A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ABACA7-E76E-4639-B844-01938BB8EF5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="188">
   <si>
     <t>升降机机身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,22 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6 共110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一包20个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面共46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1821,8 +1837,14 @@
       <c r="C39">
         <v>30</v>
       </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>141</v>
+      </c>
+      <c r="G39" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -1838,6 +1860,9 @@
       <c r="E40" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="G40" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -1852,6 +1877,9 @@
       <c r="E41" t="s">
         <v>120</v>
       </c>
+      <c r="G41" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1866,6 +1894,9 @@
       <c r="E42" t="s">
         <v>122</v>
       </c>
+      <c r="G42" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1880,6 +1911,9 @@
       <c r="E43" t="s">
         <v>128</v>
       </c>
+      <c r="G43" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1894,11 +1928,17 @@
       <c r="E44" t="s">
         <v>160</v>
       </c>
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>112</v>
       </c>
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1908,10 +1948,16 @@
         <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>185</v>
+      </c>
+      <c r="D46" t="s">
+        <v>186</v>
       </c>
       <c r="E46" t="s">
         <v>130</v>
+      </c>
+      <c r="G46" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1927,6 +1973,9 @@
       <c r="E47" t="s">
         <v>156</v>
       </c>
+      <c r="G47" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1941,6 +1990,9 @@
       <c r="E48" t="s">
         <v>138</v>
       </c>
+      <c r="G48" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1955,6 +2007,9 @@
       <c r="E49" t="s">
         <v>149</v>
       </c>
+      <c r="G49" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -1969,6 +2024,9 @@
       <c r="E50" t="s">
         <v>162</v>
       </c>
+      <c r="G50" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -1983,6 +2041,9 @@
       <c r="E51" t="s">
         <v>155</v>
       </c>
+      <c r="G51" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2032,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G58" t="s">
         <v>181</v>

--- a/Models/升降机模型/小型尺寸建模装配图/Lifter_BOM.xlsx
+++ b/Models/升降机模型/小型尺寸建模装配图/Lifter_BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA07C54-3D2C-4CA3-A024-3B524D08787A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A30389-8471-4702-9BF8-8D9E2EA7AC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="1733" windowWidth="16200" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <t>升降机机身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,10 +475,6 @@
     <t>L10</t>
   </si>
   <si>
-    <t>A16 CNC件还没改价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（平台地面与立柱）欧标2020角码（含紧固）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(到货退70差价)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M4x10 沉头螺钉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,10 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -724,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y/Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +721,30 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源降压器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜邦段子和电线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +801,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -806,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -815,6 +835,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1095,24 +1117,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="40.3984375" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="31.265625" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,13 +1154,16 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1158,10 +1183,11 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1175,10 +1201,11 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1197,13 +1224,14 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1217,13 +1245,14 @@
       <c r="F5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1235,10 +1264,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1277,8 +1310,9 @@
       <c r="F8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1294,8 +1328,9 @@
       <c r="G9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1315,10 +1350,11 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1337,8 +1373,9 @@
       <c r="G11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1355,10 +1392,13 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1375,10 +1415,16 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1397,8 +1443,9 @@
       <c r="F14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1415,10 +1462,13 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1434,8 +1484,9 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1451,16 +1502,17 @@
       <c r="G17" t="s">
         <v>100</v>
       </c>
-      <c r="I17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="6"/>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1472,15 +1524,17 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1499,8 +1553,9 @@
       <c r="F21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1519,14 +1574,15 @@
       <c r="F22" t="s">
         <v>71</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" s="6"/>
+      <c r="K22" t="s">
         <v>53</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1540,21 +1596,22 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
       </c>
-      <c r="J23" t="s">
+      <c r="H23" s="6"/>
+      <c r="L23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1566,16 +1623,17 @@
         <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="L24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1595,18 +1653,19 @@
         <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="L25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1615,13 +1674,14 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="L26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1638,13 +1698,16 @@
         <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
-      </c>
-      <c r="J27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -1661,13 +1724,14 @@
         <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="L28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -1684,13 +1748,14 @@
         <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
-      </c>
-      <c r="J29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="L29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -1707,12 +1772,15 @@
         <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -1727,15 +1795,18 @@
         <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="H31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1744,16 +1815,16 @@
         <v>22.4</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1772,239 +1843,260 @@
       <c r="G33" t="s">
         <v>100</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" t="s">
-        <v>167</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" t="s">
         <v>147</v>
       </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>133</v>
       </c>
-      <c r="B50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>134</v>
       </c>
-      <c r="B51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -2018,15 +2110,18 @@
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2035,15 +2130,16 @@
         <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2052,32 +2148,60 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64">
+        <v>183</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B68">
         <v>950</v>
       </c>
-      <c r="C64">
+      <c r="C68">
         <v>4</v>
       </c>
-      <c r="E64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65">
+      <c r="E68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B69">
         <v>450</v>
       </c>
     </row>

--- a/Models/升降机模型/小型尺寸建模装配图/Lifter_BOM.xlsx
+++ b/Models/升降机模型/小型尺寸建模装配图/Lifter_BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ABACA7-E76E-4639-B844-01938BB8EF5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB96A69-23C0-4265-A498-9E6AF7F99CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="192">
   <si>
     <t>升降机机身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,10 +475,6 @@
     <t>L10</t>
   </si>
   <si>
-    <t>A16 CNC件还没改价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（平台地面与立柱）欧标2020角码（含紧固）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,10 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,6 +745,30 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Y/第二份N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机充电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16 CNC件还没改价（n）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派充电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
         <v>151</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1174,7 +1190,7 @@
         <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1219,7 +1235,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1239,7 +1255,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1251,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1331,7 +1347,7 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1371,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1391,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1431,7 +1447,7 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1468,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1476,7 +1492,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1488,7 +1504,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1556,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
@@ -1570,7 +1586,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1582,10 +1598,10 @@
         <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
@@ -1611,7 +1627,7 @@
         <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J25" t="s">
         <v>58</v>
@@ -1622,7 +1638,7 @@
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1631,7 +1647,7 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
@@ -1654,7 +1670,7 @@
         <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" t="s">
         <v>59</v>
@@ -1677,7 +1693,7 @@
         <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J28" t="s">
         <v>102</v>
@@ -1700,7 +1716,7 @@
         <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J29" t="s">
         <v>103</v>
@@ -1723,12 +1739,12 @@
         <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -1743,7 +1759,7 @@
         <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1751,7 +1767,7 @@
         <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1760,13 +1776,13 @@
         <v>22.4</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1779,8 +1795,8 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>100</v>
+      <c r="D33" t="s">
+        <v>186</v>
       </c>
       <c r="E33" t="s">
         <v>95</v>
@@ -1789,35 +1805,35 @@
         <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1832,19 +1848,19 @@
         <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -1852,16 +1868,16 @@
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1869,16 +1885,16 @@
         <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1886,16 +1902,16 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1903,16 +1919,16 @@
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1920,16 +1936,16 @@
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1937,7 +1953,7 @@
         <v>112</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1945,19 +1961,19 @@
         <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" t="s">
         <v>185</v>
-      </c>
-      <c r="D46" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1965,16 +1981,16 @@
         <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1982,82 +1998,82 @@
         <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" t="s">
         <v>154</v>
       </c>
-      <c r="C51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s">
-        <v>155</v>
-      </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2079,15 +2095,15 @@
         <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2096,15 +2112,15 @@
         <v>151</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2113,32 +2129,51 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70">
         <v>950</v>
       </c>
-      <c r="C64">
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="E64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65">
+      <c r="E70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71">
         <v>450</v>
       </c>
     </row>
